--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit1</t>
+  </si>
+  <si>
+    <t>Gpc1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit1</t>
-  </si>
-  <si>
-    <t>Gpc1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H2">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N2">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q2">
-        <v>0.2169934982164444</v>
+        <v>0.2586218595773333</v>
       </c>
       <c r="R2">
-        <v>1.952941483948</v>
+        <v>2.327596736196</v>
       </c>
       <c r="S2">
-        <v>0.002482491189135631</v>
+        <v>0.002512867627182811</v>
       </c>
       <c r="T2">
-        <v>0.00248249118913563</v>
+        <v>0.002512867627182811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H3">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q3">
-        <v>1.796786806702333</v>
+        <v>3.745601697737333</v>
       </c>
       <c r="R3">
-        <v>16.171081260321</v>
+        <v>33.710415279636</v>
       </c>
       <c r="S3">
-        <v>0.02055594961626208</v>
+        <v>0.03639368020146292</v>
       </c>
       <c r="T3">
-        <v>0.02055594961626208</v>
+        <v>0.03639368020146292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H4">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N4">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O4">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P4">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q4">
-        <v>12.47094853171122</v>
+        <v>28.43180842416533</v>
       </c>
       <c r="R4">
-        <v>112.238536785401</v>
+        <v>255.886275817488</v>
       </c>
       <c r="S4">
-        <v>0.1426725690152078</v>
+        <v>0.2762541847317625</v>
       </c>
       <c r="T4">
-        <v>0.1426725690152078</v>
+        <v>0.2762541847317625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H5">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I5">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J5">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N5">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O5">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P5">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q5">
-        <v>0.374258441736111</v>
+        <v>0.2141780661542222</v>
       </c>
       <c r="R5">
-        <v>3.368325975624999</v>
+        <v>1.927602595388</v>
       </c>
       <c r="S5">
-        <v>0.004281664159092841</v>
+        <v>0.002081034951071605</v>
       </c>
       <c r="T5">
-        <v>0.004281664159092841</v>
+        <v>0.002081034951071605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H6">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I6">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J6">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N6">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q6">
-        <v>0.4523470521297778</v>
+        <v>0.1992898940666667</v>
       </c>
       <c r="R6">
-        <v>4.071123469168</v>
+        <v>1.7936090466</v>
       </c>
       <c r="S6">
-        <v>0.005175028655575399</v>
+        <v>0.001936375850221091</v>
       </c>
       <c r="T6">
-        <v>0.005175028655575398</v>
+        <v>0.001936375850221091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H7">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I7">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J7">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q7">
-        <v>3.745601697737333</v>
+        <v>2.886301130066667</v>
       </c>
       <c r="R7">
-        <v>33.710415279636</v>
+        <v>25.9767101706</v>
       </c>
       <c r="S7">
-        <v>0.04285116046827124</v>
+        <v>0.02804439146752374</v>
       </c>
       <c r="T7">
-        <v>0.04285116046827123</v>
+        <v>0.02804439146752374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H8">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I8">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J8">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N8">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O8">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P8">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q8">
-        <v>25.99707757121288</v>
+        <v>21.90909963386667</v>
       </c>
       <c r="R8">
-        <v>233.973698140916</v>
+        <v>197.1818967048</v>
       </c>
       <c r="S8">
-        <v>0.2974168191409924</v>
+        <v>0.212877083556055</v>
       </c>
       <c r="T8">
-        <v>0.2974168191409924</v>
+        <v>0.212877083556055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H9">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I9">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J9">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N9">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O9">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P9">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q9">
-        <v>0.7801832969444443</v>
+        <v>0.1650422133111111</v>
       </c>
       <c r="R9">
-        <v>7.0216496725</v>
+        <v>1.4853799198</v>
       </c>
       <c r="S9">
-        <v>0.008925604575688592</v>
+        <v>0.001603612454205861</v>
       </c>
       <c r="T9">
-        <v>0.008925604575688589</v>
+        <v>0.001603612454205861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H10">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N10">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q10">
-        <v>0.3703892398546668</v>
+        <v>0.357308327892</v>
       </c>
       <c r="R10">
-        <v>3.333503158692</v>
+        <v>3.215774951028</v>
       </c>
       <c r="S10">
-        <v>0.004237398963782282</v>
+        <v>0.003471742611200839</v>
       </c>
       <c r="T10">
-        <v>0.00423739896378228</v>
+        <v>0.003471742611200838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H11">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I11">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J11">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.061059</v>
       </c>
       <c r="O11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q11">
-        <v>3.066960554051001</v>
+        <v>5.174870684772</v>
       </c>
       <c r="R11">
-        <v>27.602644986459</v>
+        <v>46.573836162948</v>
       </c>
       <c r="S11">
-        <v>0.03508723816813951</v>
+        <v>0.05028099728256925</v>
       </c>
       <c r="T11">
-        <v>0.0350872381681395</v>
+        <v>0.05028099728256924</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H12">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I12">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J12">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N12">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O12">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P12">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q12">
-        <v>21.28683663286434</v>
+        <v>39.280987088976</v>
       </c>
       <c r="R12">
-        <v>191.581529695779</v>
+        <v>353.528883800784</v>
       </c>
       <c r="S12">
-        <v>0.243529805362853</v>
+        <v>0.3816689006141726</v>
       </c>
       <c r="T12">
-        <v>0.2435298053628529</v>
+        <v>0.3816689006141726</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H13">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I13">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J13">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N13">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O13">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P13">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q13">
-        <v>0.6388269735416667</v>
+        <v>0.295905407276</v>
       </c>
       <c r="R13">
-        <v>5.749442761875001</v>
+        <v>2.663148665484</v>
       </c>
       <c r="S13">
-        <v>0.007308432493297559</v>
+        <v>0.002875128652571853</v>
       </c>
       <c r="T13">
-        <v>0.007308432493297557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.279251</v>
-      </c>
-      <c r="H14">
-        <v>0.837753</v>
-      </c>
-      <c r="I14">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J14">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.8478306666666667</v>
-      </c>
-      <c r="N14">
-        <v>2.543492</v>
-      </c>
-      <c r="O14">
-        <v>0.01460351867535248</v>
-      </c>
-      <c r="P14">
-        <v>0.01460351867535248</v>
-      </c>
-      <c r="Q14">
-        <v>0.2367575614973333</v>
-      </c>
-      <c r="R14">
-        <v>2.130818053476</v>
-      </c>
-      <c r="S14">
-        <v>0.002708599866859172</v>
-      </c>
-      <c r="T14">
-        <v>0.002708599866859171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.279251</v>
-      </c>
-      <c r="H15">
-        <v>0.837753</v>
-      </c>
-      <c r="I15">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J15">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>7.020353</v>
-      </c>
-      <c r="N15">
-        <v>21.061059</v>
-      </c>
-      <c r="O15">
-        <v>0.1209225617494376</v>
-      </c>
-      <c r="P15">
-        <v>0.1209225617494376</v>
-      </c>
-      <c r="Q15">
-        <v>1.960440595603</v>
-      </c>
-      <c r="R15">
-        <v>17.643965360427</v>
-      </c>
-      <c r="S15">
-        <v>0.02242821349676474</v>
-      </c>
-      <c r="T15">
-        <v>0.02242821349676474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.279251</v>
-      </c>
-      <c r="H16">
-        <v>0.837753</v>
-      </c>
-      <c r="I16">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J16">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>48.72612633333333</v>
-      </c>
-      <c r="N16">
-        <v>146.178379</v>
-      </c>
-      <c r="O16">
-        <v>0.8392865743864156</v>
-      </c>
-      <c r="P16">
-        <v>0.8392865743864155</v>
-      </c>
-      <c r="Q16">
-        <v>13.60681950470967</v>
-      </c>
-      <c r="R16">
-        <v>122.461375542387</v>
-      </c>
-      <c r="S16">
-        <v>0.1556673808673625</v>
-      </c>
-      <c r="T16">
-        <v>0.1556673808673624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.279251</v>
-      </c>
-      <c r="H17">
-        <v>0.837753</v>
-      </c>
-      <c r="I17">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J17">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.462291666666667</v>
-      </c>
-      <c r="N17">
-        <v>4.386875</v>
-      </c>
-      <c r="O17">
-        <v>0.02518734518879435</v>
-      </c>
-      <c r="P17">
-        <v>0.02518734518879434</v>
-      </c>
-      <c r="Q17">
-        <v>0.4083464102083332</v>
-      </c>
-      <c r="R17">
-        <v>3.675117691875</v>
-      </c>
-      <c r="S17">
-        <v>0.004671643960715358</v>
-      </c>
-      <c r="T17">
-        <v>0.004671643960715357</v>
+        <v>0.002875128652571853</v>
       </c>
     </row>
   </sheetData>
